--- a/data/raw/response_traits/resprout_capacity_data_VH.xlsx
+++ b/data/raw/response_traits/resprout_capacity_data_VH.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="395">
   <si>
     <t>familia</t>
   </si>
@@ -1193,13 +1193,13 @@
     <t>abundante</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>a nivel de genero</t>
   </si>
   <si>
     <t>observaciones</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1235,8 +1235,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1621,16 +1630,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D258" sqref="D1:D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
@@ -1647,11 +1656,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1664,7 +1673,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>60</v>
       </c>
     </row>
@@ -1678,7 +1687,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>60</v>
       </c>
     </row>
@@ -1692,7 +1701,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1706,7 +1715,7 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1720,7 +1729,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1734,7 +1743,7 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1748,8 +1757,8 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>392</v>
+      <c r="D8" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1762,8 +1771,8 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>392</v>
+      <c r="D9" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1776,8 +1785,8 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
-        <v>392</v>
+      <c r="D10" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1790,8 +1799,8 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>392</v>
+      <c r="D11" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1804,8 +1813,8 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>392</v>
+      <c r="D12" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1818,8 +1827,8 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>392</v>
+      <c r="D13" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1832,7 +1841,7 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1846,7 +1855,7 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>60</v>
       </c>
     </row>
@@ -1860,11 +1869,11 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>393</v>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1877,6 +1886,10 @@
       <c r="C17" t="s">
         <v>30</v>
       </c>
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
@@ -1888,8 +1901,8 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
-        <v>392</v>
+      <c r="D18" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1902,7 +1915,7 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>60</v>
       </c>
     </row>
@@ -1916,7 +1929,7 @@
       <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>60</v>
       </c>
     </row>
@@ -1930,7 +1943,7 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1944,7 +1957,7 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1958,7 +1971,7 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1972,7 +1985,7 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1986,7 +1999,7 @@
       <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>60</v>
       </c>
     </row>
@@ -2000,8 +2013,8 @@
       <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
-        <v>392</v>
+      <c r="D26" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2014,8 +2027,8 @@
       <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="D27" t="s">
-        <v>392</v>
+      <c r="D27" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2028,7 +2041,7 @@
       <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2042,7 +2055,7 @@
       <c r="C29" t="s">
         <v>57</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2056,11 +2069,11 @@
       <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>393</v>
+      <c r="D30" s="1">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2073,6 +2086,10 @@
       <c r="C31" t="s">
         <v>60</v>
       </c>
+      <c r="D31" s="1">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
@@ -2084,14 +2101,14 @@
       <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="1">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2101,11 +2118,12 @@
       <c r="C33" t="s">
         <v>64</v>
       </c>
-      <c r="D33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2115,11 +2133,12 @@
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -2129,11 +2148,12 @@
       <c r="C35" t="s">
         <v>66</v>
       </c>
-      <c r="D35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -2143,11 +2163,12 @@
       <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="1">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -2157,11 +2178,11 @@
       <c r="C37" t="s">
         <v>69</v>
       </c>
-      <c r="D37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -2171,11 +2192,11 @@
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2185,11 +2206,11 @@
       <c r="C39" t="s">
         <v>70</v>
       </c>
-      <c r="D39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -2199,11 +2220,11 @@
       <c r="C40" t="s">
         <v>71</v>
       </c>
-      <c r="D40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -2213,11 +2234,11 @@
       <c r="C41" t="s">
         <v>17</v>
       </c>
-      <c r="D41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2227,11 +2248,11 @@
       <c r="C42" t="s">
         <v>27</v>
       </c>
-      <c r="D42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -2241,11 +2262,11 @@
       <c r="C43" t="s">
         <v>75</v>
       </c>
-      <c r="D43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -2255,11 +2276,11 @@
       <c r="C44" t="s">
         <v>78</v>
       </c>
-      <c r="D44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2269,11 +2290,11 @@
       <c r="C45" t="s">
         <v>79</v>
       </c>
-      <c r="D45" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2283,11 +2304,11 @@
       <c r="C46" t="s">
         <v>80</v>
       </c>
-      <c r="D46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2297,11 +2318,11 @@
       <c r="C47" t="s">
         <v>63</v>
       </c>
-      <c r="D47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -2311,7 +2332,7 @@
       <c r="C48" t="s">
         <v>82</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2325,8 +2346,8 @@
       <c r="C49" t="s">
         <v>85</v>
       </c>
-      <c r="D49" t="s">
-        <v>392</v>
+      <c r="D49" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2339,7 +2360,7 @@
       <c r="C50" t="s">
         <v>87</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2353,6 +2374,9 @@
       <c r="C51" t="s">
         <v>17</v>
       </c>
+      <c r="D51" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
@@ -2364,7 +2388,7 @@
       <c r="C52" t="s">
         <v>88</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2378,11 +2402,11 @@
       <c r="C53" t="s">
         <v>90</v>
       </c>
-      <c r="D53">
-        <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>393</v>
+      <c r="D53" s="1">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2395,9 +2419,10 @@
       <c r="C54" t="s">
         <v>91</v>
       </c>
-      <c r="D54" t="s">
-        <v>392</v>
-      </c>
+      <c r="D54" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
@@ -2409,9 +2434,10 @@
       <c r="C55" t="s">
         <v>92</v>
       </c>
-      <c r="D55" t="s">
-        <v>392</v>
-      </c>
+      <c r="D55" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
@@ -2423,9 +2449,10 @@
       <c r="C56" t="s">
         <v>93</v>
       </c>
-      <c r="D56" t="s">
-        <v>392</v>
-      </c>
+      <c r="D56" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
@@ -2437,9 +2464,10 @@
       <c r="C57" t="s">
         <v>17</v>
       </c>
-      <c r="D57" t="s">
-        <v>392</v>
-      </c>
+      <c r="D57" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
@@ -2451,7 +2479,7 @@
       <c r="C58" t="s">
         <v>27</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2465,7 +2493,7 @@
       <c r="C59" t="s">
         <v>97</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>60</v>
       </c>
     </row>
@@ -2479,7 +2507,7 @@
       <c r="C60" t="s">
         <v>100</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2493,7 +2521,7 @@
       <c r="C61" t="s">
         <v>102</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>60</v>
       </c>
     </row>
@@ -2507,11 +2535,11 @@
       <c r="C62" t="s">
         <v>104</v>
       </c>
-      <c r="D62">
-        <v>20</v>
-      </c>
-      <c r="E62" t="s">
-        <v>393</v>
+      <c r="D62" s="1">
+        <v>20</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2524,6 +2552,10 @@
       <c r="C63" t="s">
         <v>17</v>
       </c>
+      <c r="D63" s="1">
+        <v>20</v>
+      </c>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
@@ -2535,7 +2567,7 @@
       <c r="C64" t="s">
         <v>106</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2549,7 +2581,7 @@
       <c r="C65" t="s">
         <v>108</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2563,7 +2595,7 @@
       <c r="C66" t="s">
         <v>111</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2577,8 +2609,8 @@
       <c r="C67" t="s">
         <v>112</v>
       </c>
-      <c r="D67" t="s">
-        <v>392</v>
+      <c r="D67" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2591,8 +2623,8 @@
       <c r="C68" t="s">
         <v>113</v>
       </c>
-      <c r="D68" t="s">
-        <v>392</v>
+      <c r="D68" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2605,8 +2637,8 @@
       <c r="C69" t="s">
         <v>17</v>
       </c>
-      <c r="D69" t="s">
-        <v>392</v>
+      <c r="D69" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2619,8 +2651,8 @@
       <c r="C70" t="s">
         <v>116</v>
       </c>
-      <c r="D70" t="s">
-        <v>392</v>
+      <c r="D70" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2633,8 +2665,8 @@
       <c r="C71" t="s">
         <v>118</v>
       </c>
-      <c r="D71" t="s">
-        <v>392</v>
+      <c r="D71" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2647,8 +2679,8 @@
       <c r="C72" t="s">
         <v>7</v>
       </c>
-      <c r="D72" t="s">
-        <v>392</v>
+      <c r="D72" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2661,11 +2693,11 @@
       <c r="C73" t="s">
         <v>7</v>
       </c>
-      <c r="D73">
-        <v>20</v>
-      </c>
-      <c r="E73" t="s">
-        <v>393</v>
+      <c r="D73" s="1">
+        <v>20</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2678,6 +2710,10 @@
       <c r="C74" t="s">
         <v>122</v>
       </c>
+      <c r="D74" s="1">
+        <v>20</v>
+      </c>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
@@ -2689,6 +2725,10 @@
       <c r="C75" t="s">
         <v>123</v>
       </c>
+      <c r="D75" s="1">
+        <v>20</v>
+      </c>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
@@ -2700,6 +2740,10 @@
       <c r="C76" t="s">
         <v>17</v>
       </c>
+      <c r="D76" s="1">
+        <v>20</v>
+      </c>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
@@ -2711,7 +2755,7 @@
       <c r="C77" t="s">
         <v>126</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>60</v>
       </c>
     </row>
@@ -2725,7 +2769,7 @@
       <c r="C78" t="s">
         <v>128</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>60</v>
       </c>
     </row>
@@ -2739,7 +2783,7 @@
       <c r="C79" t="s">
         <v>130</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2753,7 +2797,7 @@
       <c r="C80" t="s">
         <v>132</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2767,7 +2811,7 @@
       <c r="C81" t="s">
         <v>133</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2781,8 +2825,8 @@
       <c r="C82" t="s">
         <v>29</v>
       </c>
-      <c r="D82" t="s">
-        <v>392</v>
+      <c r="D82" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2795,7 +2839,7 @@
       <c r="C83" t="s">
         <v>136</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2809,11 +2853,11 @@
       <c r="C84" t="s">
         <v>138</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>60</v>
       </c>
-      <c r="E84" t="s">
-        <v>393</v>
+      <c r="E84" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2826,6 +2870,10 @@
       <c r="C85" t="s">
         <v>139</v>
       </c>
+      <c r="D85" s="1">
+        <v>60</v>
+      </c>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
@@ -2837,6 +2885,10 @@
       <c r="C86" t="s">
         <v>17</v>
       </c>
+      <c r="D86" s="1">
+        <v>60</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
@@ -2848,8 +2900,8 @@
       <c r="C87" t="s">
         <v>142</v>
       </c>
-      <c r="D87" t="s">
-        <v>392</v>
+      <c r="D87" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2862,7 +2914,7 @@
       <c r="C88" t="s">
         <v>144</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2876,7 +2928,7 @@
       <c r="C89" t="s">
         <v>118</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2890,7 +2942,7 @@
       <c r="C90" t="s">
         <v>146</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2904,7 +2956,7 @@
       <c r="C91" t="s">
         <v>17</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2918,8 +2970,8 @@
       <c r="C92" t="s">
         <v>118</v>
       </c>
-      <c r="D92" t="s">
-        <v>392</v>
+      <c r="D92" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2932,7 +2984,7 @@
       <c r="C93" t="s">
         <v>150</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2946,7 +2998,7 @@
       <c r="C94" t="s">
         <v>151</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>20</v>
       </c>
     </row>
@@ -2960,8 +3012,8 @@
       <c r="C95" t="s">
         <v>153</v>
       </c>
-      <c r="D95" t="s">
-        <v>392</v>
+      <c r="D95" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2974,8 +3026,8 @@
       <c r="C96" t="s">
         <v>155</v>
       </c>
-      <c r="D96" t="s">
-        <v>392</v>
+      <c r="D96" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2988,8 +3040,8 @@
       <c r="C97" t="s">
         <v>75</v>
       </c>
-      <c r="D97" t="s">
-        <v>392</v>
+      <c r="D97" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3002,8 +3054,8 @@
       <c r="C98" t="s">
         <v>157</v>
       </c>
-      <c r="D98" t="s">
-        <v>392</v>
+      <c r="D98" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3016,11 +3068,11 @@
       <c r="C99" t="s">
         <v>22</v>
       </c>
-      <c r="D99">
-        <v>20</v>
-      </c>
-      <c r="E99" t="s">
-        <v>393</v>
+      <c r="D99" s="1">
+        <v>20</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3033,6 +3085,10 @@
       <c r="C100" t="s">
         <v>159</v>
       </c>
+      <c r="D100" s="1">
+        <v>20</v>
+      </c>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
@@ -3044,6 +3100,10 @@
       <c r="C101" t="s">
         <v>160</v>
       </c>
+      <c r="D101" s="1">
+        <v>20</v>
+      </c>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
@@ -3055,6 +3115,10 @@
       <c r="C102" t="s">
         <v>161</v>
       </c>
+      <c r="D102" s="1">
+        <v>20</v>
+      </c>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
@@ -3066,6 +3130,10 @@
       <c r="C103" t="s">
         <v>162</v>
       </c>
+      <c r="D103" s="1">
+        <v>20</v>
+      </c>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
@@ -3077,6 +3145,10 @@
       <c r="C104" t="s">
         <v>163</v>
       </c>
+      <c r="D104" s="1">
+        <v>20</v>
+      </c>
+      <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
@@ -3088,6 +3160,10 @@
       <c r="C105" t="s">
         <v>164</v>
       </c>
+      <c r="D105" s="1">
+        <v>20</v>
+      </c>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
@@ -3099,6 +3175,10 @@
       <c r="C106" t="s">
         <v>165</v>
       </c>
+      <c r="D106" s="1">
+        <v>20</v>
+      </c>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
@@ -3110,6 +3190,10 @@
       <c r="C107" t="s">
         <v>166</v>
       </c>
+      <c r="D107" s="1">
+        <v>20</v>
+      </c>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
@@ -3121,6 +3205,10 @@
       <c r="C108" t="s">
         <v>167</v>
       </c>
+      <c r="D108" s="1">
+        <v>20</v>
+      </c>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
@@ -3132,6 +3220,10 @@
       <c r="C109" t="s">
         <v>168</v>
       </c>
+      <c r="D109" s="1">
+        <v>20</v>
+      </c>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
@@ -3143,6 +3235,10 @@
       <c r="C110" t="s">
         <v>169</v>
       </c>
+      <c r="D110" s="1">
+        <v>20</v>
+      </c>
+      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
@@ -3154,6 +3250,10 @@
       <c r="C111" t="s">
         <v>30</v>
       </c>
+      <c r="D111" s="1">
+        <v>20</v>
+      </c>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
@@ -3165,6 +3265,10 @@
       <c r="C112" t="s">
         <v>170</v>
       </c>
+      <c r="D112" s="1">
+        <v>20</v>
+      </c>
+      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
@@ -3176,6 +3280,10 @@
       <c r="C113" t="s">
         <v>171</v>
       </c>
+      <c r="D113" s="1">
+        <v>20</v>
+      </c>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
@@ -3187,6 +3295,10 @@
       <c r="C114" t="s">
         <v>172</v>
       </c>
+      <c r="D114" s="1">
+        <v>20</v>
+      </c>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
@@ -3198,6 +3310,10 @@
       <c r="C115" t="s">
         <v>173</v>
       </c>
+      <c r="D115" s="1">
+        <v>20</v>
+      </c>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
@@ -3209,6 +3325,10 @@
       <c r="C116" t="s">
         <v>174</v>
       </c>
+      <c r="D116" s="1">
+        <v>20</v>
+      </c>
+      <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
@@ -3220,6 +3340,10 @@
       <c r="C117" t="s">
         <v>175</v>
       </c>
+      <c r="D117" s="1">
+        <v>20</v>
+      </c>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
@@ -3231,6 +3355,10 @@
       <c r="C118" t="s">
         <v>176</v>
       </c>
+      <c r="D118" s="1">
+        <v>20</v>
+      </c>
+      <c r="E118" s="2"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
@@ -3242,6 +3370,10 @@
       <c r="C119" t="s">
         <v>177</v>
       </c>
+      <c r="D119" s="1">
+        <v>20</v>
+      </c>
+      <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
@@ -3253,7 +3385,7 @@
       <c r="C120" t="s">
         <v>179</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>60</v>
       </c>
     </row>
@@ -3267,7 +3399,7 @@
       <c r="C121" t="s">
         <v>181</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>40</v>
       </c>
     </row>
@@ -3281,11 +3413,11 @@
       <c r="C122" t="s">
         <v>17</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3298,7 +3430,7 @@
       <c r="C123" t="s">
         <v>185</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3312,7 +3444,7 @@
       <c r="C124" t="s">
         <v>27</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>40</v>
       </c>
     </row>
@@ -3326,11 +3458,11 @@
       <c r="C125" t="s">
         <v>22</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>40</v>
       </c>
-      <c r="E125" t="s">
-        <v>393</v>
+      <c r="E125" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3343,6 +3475,10 @@
       <c r="C126" t="s">
         <v>159</v>
       </c>
+      <c r="D126" s="1">
+        <v>40</v>
+      </c>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
@@ -3354,6 +3490,10 @@
       <c r="C127" t="s">
         <v>188</v>
       </c>
+      <c r="D127" s="1">
+        <v>40</v>
+      </c>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
@@ -3365,7 +3505,7 @@
       <c r="C128" t="s">
         <v>190</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3379,7 +3519,7 @@
       <c r="C129" t="s">
         <v>192</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3393,11 +3533,11 @@
       <c r="C130" t="s">
         <v>194</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>40</v>
       </c>
-      <c r="E130" t="s">
-        <v>393</v>
+      <c r="E130" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3410,6 +3550,10 @@
       <c r="C131" t="s">
         <v>17</v>
       </c>
+      <c r="D131" s="1">
+        <v>40</v>
+      </c>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
@@ -3421,8 +3565,8 @@
       <c r="C132" t="s">
         <v>196</v>
       </c>
-      <c r="D132" t="s">
-        <v>392</v>
+      <c r="D132" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3435,7 +3579,7 @@
       <c r="C133" t="s">
         <v>197</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3449,7 +3593,7 @@
       <c r="C134" t="s">
         <v>199</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>40</v>
       </c>
     </row>
@@ -3463,7 +3607,7 @@
       <c r="C135" t="s">
         <v>200</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>40</v>
       </c>
     </row>
@@ -3477,11 +3621,11 @@
       <c r="C136" t="s">
         <v>17</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>20</v>
       </c>
       <c r="E136" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3494,7 +3638,7 @@
       <c r="C137" t="s">
         <v>203</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3508,11 +3652,11 @@
       <c r="C138" t="s">
         <v>29</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>40</v>
       </c>
-      <c r="E138" t="s">
-        <v>393</v>
+      <c r="E138" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3525,6 +3669,10 @@
       <c r="C139" t="s">
         <v>17</v>
       </c>
+      <c r="D139" s="1">
+        <v>40</v>
+      </c>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
@@ -3536,7 +3684,7 @@
       <c r="C140" t="s">
         <v>207</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>40</v>
       </c>
     </row>
@@ -3550,7 +3698,7 @@
       <c r="C141" t="s">
         <v>209</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3564,7 +3712,7 @@
       <c r="C142" t="s">
         <v>212</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>40</v>
       </c>
     </row>
@@ -3578,7 +3726,7 @@
       <c r="C143" t="s">
         <v>215</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3592,8 +3740,8 @@
       <c r="C144" t="s">
         <v>218</v>
       </c>
-      <c r="D144" t="s">
-        <v>392</v>
+      <c r="D144" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3606,7 +3754,7 @@
       <c r="C145" t="s">
         <v>220</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3620,11 +3768,11 @@
       <c r="C146" t="s">
         <v>222</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>20</v>
       </c>
       <c r="E146" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3637,7 +3785,7 @@
       <c r="C147" t="s">
         <v>75</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3651,7 +3799,7 @@
       <c r="C148" t="s">
         <v>226</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3665,6 +3813,9 @@
       <c r="C149" t="s">
         <v>17</v>
       </c>
+      <c r="D149" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
@@ -3676,7 +3827,7 @@
       <c r="C150" t="s">
         <v>75</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3690,11 +3841,11 @@
       <c r="C151" t="s">
         <v>17</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3707,7 +3858,7 @@
       <c r="C152" t="s">
         <v>231</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3721,7 +3872,7 @@
       <c r="C153" t="s">
         <v>232</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3735,7 +3886,7 @@
       <c r="C154" t="s">
         <v>233</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3749,7 +3900,7 @@
       <c r="C155" t="s">
         <v>17</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3763,11 +3914,11 @@
       <c r="C156" t="s">
         <v>22</v>
       </c>
-      <c r="D156">
-        <v>20</v>
-      </c>
-      <c r="E156" t="s">
-        <v>393</v>
+      <c r="D156" s="1">
+        <v>20</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3780,6 +3931,10 @@
       <c r="C157" t="s">
         <v>159</v>
       </c>
+      <c r="D157" s="1">
+        <v>20</v>
+      </c>
+      <c r="E157" s="2"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
@@ -3791,6 +3946,10 @@
       <c r="C158" t="s">
         <v>160</v>
       </c>
+      <c r="D158" s="1">
+        <v>20</v>
+      </c>
+      <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
@@ -3802,6 +3961,10 @@
       <c r="C159" t="s">
         <v>236</v>
       </c>
+      <c r="D159" s="1">
+        <v>20</v>
+      </c>
+      <c r="E159" s="2"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
@@ -3813,6 +3976,10 @@
       <c r="C160" t="s">
         <v>237</v>
       </c>
+      <c r="D160" s="1">
+        <v>20</v>
+      </c>
+      <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
@@ -3824,6 +3991,10 @@
       <c r="C161" t="s">
         <v>238</v>
       </c>
+      <c r="D161" s="1">
+        <v>20</v>
+      </c>
+      <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
@@ -3835,7 +4006,7 @@
       <c r="C162" t="s">
         <v>240</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3849,7 +4020,7 @@
       <c r="C163" t="s">
         <v>242</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3863,7 +4034,7 @@
       <c r="C164" t="s">
         <v>245</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3877,11 +4048,11 @@
       <c r="C165" t="s">
         <v>248</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <v>40</v>
       </c>
-      <c r="E165" t="s">
-        <v>393</v>
+      <c r="E165" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3894,6 +4065,10 @@
       <c r="C166" t="s">
         <v>17</v>
       </c>
+      <c r="D166" s="1">
+        <v>40</v>
+      </c>
+      <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
@@ -3905,7 +4080,7 @@
       <c r="C167" t="s">
         <v>250</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3919,7 +4094,7 @@
       <c r="C168" t="s">
         <v>253</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3933,7 +4108,7 @@
       <c r="C169" t="s">
         <v>256</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3947,7 +4122,7 @@
       <c r="C170" t="s">
         <v>258</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3961,7 +4136,7 @@
       <c r="C171" t="s">
         <v>260</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3975,7 +4150,7 @@
       <c r="C172" t="s">
         <v>7</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>20</v>
       </c>
     </row>
@@ -3989,7 +4164,7 @@
       <c r="C173" t="s">
         <v>264</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>60</v>
       </c>
     </row>
@@ -4003,11 +4178,11 @@
       <c r="C174" t="s">
         <v>22</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>40</v>
       </c>
-      <c r="E174" t="s">
-        <v>393</v>
+      <c r="E174" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4020,6 +4195,10 @@
       <c r="C175" t="s">
         <v>159</v>
       </c>
+      <c r="D175" s="1">
+        <v>40</v>
+      </c>
+      <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
@@ -4031,6 +4210,10 @@
       <c r="C176" t="s">
         <v>160</v>
       </c>
+      <c r="D176" s="1">
+        <v>40</v>
+      </c>
+      <c r="E176" s="2"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
@@ -4042,6 +4225,10 @@
       <c r="C177" t="s">
         <v>266</v>
       </c>
+      <c r="D177" s="1">
+        <v>40</v>
+      </c>
+      <c r="E177" s="2"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
@@ -4053,6 +4240,10 @@
       <c r="C178" t="s">
         <v>267</v>
       </c>
+      <c r="D178" s="1">
+        <v>40</v>
+      </c>
+      <c r="E178" s="2"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
@@ -4064,6 +4255,10 @@
       <c r="C179" t="s">
         <v>268</v>
       </c>
+      <c r="D179" s="1">
+        <v>40</v>
+      </c>
+      <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
@@ -4075,6 +4270,10 @@
       <c r="C180" t="s">
         <v>269</v>
       </c>
+      <c r="D180" s="1">
+        <v>40</v>
+      </c>
+      <c r="E180" s="2"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
@@ -4086,6 +4285,10 @@
       <c r="C181" t="s">
         <v>270</v>
       </c>
+      <c r="D181" s="1">
+        <v>40</v>
+      </c>
+      <c r="E181" s="2"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
@@ -4097,6 +4300,10 @@
       <c r="C182" t="s">
         <v>271</v>
       </c>
+      <c r="D182" s="1">
+        <v>40</v>
+      </c>
+      <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
@@ -4108,7 +4315,7 @@
       <c r="C183" t="s">
         <v>144</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4122,7 +4329,7 @@
       <c r="C184" t="s">
         <v>274</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4136,8 +4343,8 @@
       <c r="C185" t="s">
         <v>69</v>
       </c>
-      <c r="D185" t="s">
-        <v>392</v>
+      <c r="D185" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4150,11 +4357,11 @@
       <c r="C186" t="s">
         <v>17</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>20</v>
       </c>
       <c r="E186" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4167,7 +4374,7 @@
       <c r="C187" t="s">
         <v>277</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4181,7 +4388,7 @@
       <c r="C188" t="s">
         <v>279</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4195,7 +4402,7 @@
       <c r="C189" t="s">
         <v>282</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4209,7 +4416,7 @@
       <c r="C190" t="s">
         <v>284</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4223,7 +4430,7 @@
       <c r="C191" t="s">
         <v>285</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4237,7 +4444,7 @@
       <c r="C192" t="s">
         <v>286</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4251,7 +4458,7 @@
       <c r="C193" t="s">
         <v>17</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4265,7 +4472,7 @@
       <c r="C194" t="s">
         <v>289</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4279,7 +4486,7 @@
       <c r="C195" t="s">
         <v>291</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4293,8 +4500,8 @@
       <c r="C196" t="s">
         <v>22</v>
       </c>
-      <c r="D196" t="s">
-        <v>392</v>
+      <c r="D196" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4307,7 +4514,7 @@
       <c r="C197" t="s">
         <v>296</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4321,7 +4528,7 @@
       <c r="C198" t="s">
         <v>7</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4335,8 +4542,8 @@
       <c r="C199" t="s">
         <v>301</v>
       </c>
-      <c r="D199" t="s">
-        <v>392</v>
+      <c r="D199" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4349,7 +4556,7 @@
       <c r="C200" t="s">
         <v>304</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4363,8 +4570,8 @@
       <c r="C201" t="s">
         <v>27</v>
       </c>
-      <c r="D201" t="s">
-        <v>392</v>
+      <c r="D201" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4377,7 +4584,7 @@
       <c r="C202" t="s">
         <v>309</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4391,8 +4598,8 @@
       <c r="C203" t="s">
         <v>17</v>
       </c>
-      <c r="D203" t="s">
-        <v>392</v>
+      <c r="D203" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4405,7 +4612,7 @@
       <c r="C204" t="s">
         <v>312</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4419,7 +4626,7 @@
       <c r="C205" t="s">
         <v>314</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4433,7 +4640,7 @@
       <c r="C206" t="s">
         <v>69</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4447,6 +4654,12 @@
       <c r="C207" t="s">
         <v>319</v>
       </c>
+      <c r="D207" s="1">
+        <v>20</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
@@ -4458,12 +4671,10 @@
       <c r="C208" t="s">
         <v>17</v>
       </c>
-      <c r="D208">
-        <v>20</v>
-      </c>
-      <c r="E208" t="s">
-        <v>393</v>
-      </c>
+      <c r="D208" s="1">
+        <v>20</v>
+      </c>
+      <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
@@ -4475,11 +4686,11 @@
       <c r="C209" t="s">
         <v>17</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>20</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4492,7 +4703,7 @@
       <c r="C210" t="s">
         <v>323</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4506,7 +4717,7 @@
       <c r="C211" t="s">
         <v>325</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4520,11 +4731,11 @@
       <c r="C212" t="s">
         <v>327</v>
       </c>
-      <c r="D212">
-        <v>20</v>
-      </c>
-      <c r="E212" t="s">
-        <v>393</v>
+      <c r="D212" s="1">
+        <v>20</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4537,6 +4748,10 @@
       <c r="C213" t="s">
         <v>328</v>
       </c>
+      <c r="D213" s="1">
+        <v>20</v>
+      </c>
+      <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
@@ -4548,6 +4763,10 @@
       <c r="C214" t="s">
         <v>329</v>
       </c>
+      <c r="D214" s="1">
+        <v>20</v>
+      </c>
+      <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
@@ -4559,7 +4778,7 @@
       <c r="C215" t="s">
         <v>331</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4573,7 +4792,7 @@
       <c r="C216" t="s">
         <v>332</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4587,11 +4806,11 @@
       <c r="C217" t="s">
         <v>22</v>
       </c>
-      <c r="D217">
-        <v>20</v>
-      </c>
-      <c r="E217" t="s">
-        <v>393</v>
+      <c r="D217" s="1">
+        <v>20</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4604,6 +4823,10 @@
       <c r="C218" t="s">
         <v>159</v>
       </c>
+      <c r="D218" s="1">
+        <v>20</v>
+      </c>
+      <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
@@ -4615,6 +4838,10 @@
       <c r="C219" t="s">
         <v>160</v>
       </c>
+      <c r="D219" s="1">
+        <v>20</v>
+      </c>
+      <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
@@ -4626,6 +4853,10 @@
       <c r="C220" t="s">
         <v>161</v>
       </c>
+      <c r="D220" s="1">
+        <v>20</v>
+      </c>
+      <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
@@ -4637,6 +4868,10 @@
       <c r="C221" t="s">
         <v>162</v>
       </c>
+      <c r="D221" s="1">
+        <v>20</v>
+      </c>
+      <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
@@ -4648,6 +4883,10 @@
       <c r="C222" t="s">
         <v>163</v>
       </c>
+      <c r="D222" s="1">
+        <v>20</v>
+      </c>
+      <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
@@ -4659,6 +4898,10 @@
       <c r="C223" t="s">
         <v>164</v>
       </c>
+      <c r="D223" s="1">
+        <v>20</v>
+      </c>
+      <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
@@ -4670,8 +4913,12 @@
       <c r="C224" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224" s="1">
+        <v>20</v>
+      </c>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>321</v>
       </c>
@@ -4681,8 +4928,12 @@
       <c r="C225" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" s="1">
+        <v>20</v>
+      </c>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>321</v>
       </c>
@@ -4692,8 +4943,12 @@
       <c r="C226" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226" s="1">
+        <v>20</v>
+      </c>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>321</v>
       </c>
@@ -4703,8 +4958,12 @@
       <c r="C227" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227" s="1">
+        <v>20</v>
+      </c>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>321</v>
       </c>
@@ -4714,8 +4973,12 @@
       <c r="C228" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228" s="1">
+        <v>20</v>
+      </c>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>321</v>
       </c>
@@ -4725,8 +4988,12 @@
       <c r="C229" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" s="1">
+        <v>20</v>
+      </c>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>321</v>
       </c>
@@ -4736,8 +5003,12 @@
       <c r="C230" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230" s="1">
+        <v>20</v>
+      </c>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>321</v>
       </c>
@@ -4747,8 +5018,12 @@
       <c r="C231" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231" s="1">
+        <v>20</v>
+      </c>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>321</v>
       </c>
@@ -4758,8 +5033,12 @@
       <c r="C232" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232" s="1">
+        <v>20</v>
+      </c>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>321</v>
       </c>
@@ -4769,8 +5048,12 @@
       <c r="C233" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" s="1">
+        <v>20</v>
+      </c>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>321</v>
       </c>
@@ -4780,8 +5063,12 @@
       <c r="C234" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" s="1">
+        <v>20</v>
+      </c>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>321</v>
       </c>
@@ -4791,8 +5078,12 @@
       <c r="C235" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" s="1">
+        <v>20</v>
+      </c>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>321</v>
       </c>
@@ -4802,8 +5093,12 @@
       <c r="C236" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" s="1">
+        <v>20</v>
+      </c>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>321</v>
       </c>
@@ -4813,8 +5108,12 @@
       <c r="C237" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" s="1">
+        <v>20</v>
+      </c>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>321</v>
       </c>
@@ -4824,8 +5123,12 @@
       <c r="C238" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" s="1">
+        <v>20</v>
+      </c>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>321</v>
       </c>
@@ -4835,8 +5138,12 @@
       <c r="C239" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239" s="1">
+        <v>20</v>
+      </c>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>321</v>
       </c>
@@ -4846,6 +5153,10 @@
       <c r="C240" t="s">
         <v>347</v>
       </c>
+      <c r="D240" s="1">
+        <v>20</v>
+      </c>
+      <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
@@ -4857,6 +5168,10 @@
       <c r="C241" t="s">
         <v>348</v>
       </c>
+      <c r="D241" s="1">
+        <v>20</v>
+      </c>
+      <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
@@ -4868,6 +5183,10 @@
       <c r="C242" t="s">
         <v>349</v>
       </c>
+      <c r="D242" s="1">
+        <v>20</v>
+      </c>
+      <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
@@ -4879,6 +5198,10 @@
       <c r="C243" t="s">
         <v>17</v>
       </c>
+      <c r="D243" s="1">
+        <v>20</v>
+      </c>
+      <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
@@ -4890,6 +5213,10 @@
       <c r="C244" t="s">
         <v>350</v>
       </c>
+      <c r="D244" s="1">
+        <v>20</v>
+      </c>
+      <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
@@ -4901,7 +5228,7 @@
       <c r="C245" t="s">
         <v>352</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="1">
         <v>20</v>
       </c>
     </row>
@@ -4915,7 +5242,7 @@
       <c r="C246" t="s">
         <v>355</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4929,7 +5256,7 @@
       <c r="C247" t="s">
         <v>358</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4943,11 +5270,11 @@
       <c r="C248" t="s">
         <v>360</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="1">
         <v>40</v>
       </c>
-      <c r="E248" t="s">
-        <v>393</v>
+      <c r="E248" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4960,6 +5287,10 @@
       <c r="C249" t="s">
         <v>17</v>
       </c>
+      <c r="D249" s="1">
+        <v>40</v>
+      </c>
+      <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
@@ -4971,7 +5302,7 @@
       <c r="C250" t="s">
         <v>363</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4985,7 +5316,7 @@
       <c r="C251" t="s">
         <v>365</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="1">
         <v>40</v>
       </c>
     </row>
@@ -4999,8 +5330,8 @@
       <c r="C252" t="s">
         <v>367</v>
       </c>
-      <c r="D252" t="s">
-        <v>392</v>
+      <c r="D252" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5013,7 +5344,7 @@
       <c r="C253" t="s">
         <v>25</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="1">
         <v>20</v>
       </c>
     </row>
@@ -5027,7 +5358,7 @@
       <c r="C254" t="s">
         <v>372</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="1">
         <v>20</v>
       </c>
     </row>
@@ -5041,7 +5372,7 @@
       <c r="C255" t="s">
         <v>375</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="1">
         <v>40</v>
       </c>
     </row>
@@ -5055,7 +5386,7 @@
       <c r="C256" t="s">
         <v>169</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="1">
         <v>40</v>
       </c>
     </row>
@@ -5069,7 +5400,7 @@
       <c r="C257" t="s">
         <v>377</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="1">
         <v>40</v>
       </c>
     </row>
@@ -5083,11 +5414,31 @@
       <c r="C258" t="s">
         <v>301</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="1">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E174:E182"/>
+    <mergeCell ref="E212:E214"/>
+    <mergeCell ref="E217:E244"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E99:E119"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E156:E161"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E73:E76"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
